--- a/chapters/ch10/docs/ch10-sparklines.xlsx
+++ b/chapters/ch10/docs/ch10-sparklines.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="140" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="4780" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$H$6:$H$11</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,7 +23,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -40,6 +43,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,7 +470,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -570,7 +579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32" customHeight="1">
+    <row r="6" spans="1:6" ht="39" customHeight="1">
       <c r="A6">
         <v>2</v>
       </c>
@@ -590,7 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32" customHeight="1">
+    <row r="7" spans="1:6" ht="45" customHeight="1">
       <c r="A7">
         <v>32</v>
       </c>
@@ -610,7 +619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1">
+    <row r="8" spans="1:6" ht="39" customHeight="1">
       <c r="A8">
         <v>35</v>
       </c>
@@ -630,7 +639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32" customHeight="1">
+    <row r="9" spans="1:6" ht="39" customHeight="1">
       <c r="A9">
         <v>4</v>
       </c>
@@ -650,7 +659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="32" customHeight="1">
+    <row r="10" spans="1:6" ht="48" customHeight="1">
       <c r="A10">
         <v>8</v>
       </c>
@@ -670,7 +679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32" customHeight="1">
+    <row r="11" spans="1:6" ht="39" customHeight="1">
       <c r="A11">
         <v>6</v>
       </c>
@@ -951,91 +960,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" first="1" last="1">
-          <x14:colorSeries theme="1"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!F1:F24</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" first="1" last="1">
-          <x14:colorSeries theme="1"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!E1:E24</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" first="1" last="1">
-          <x14:colorSeries theme="1"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!D1:D24</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" first="1" last="1">
-          <x14:colorSeries theme="1"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!C1:C24</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" first="1" last="1">
-          <x14:colorSeries theme="1"/>
-          <x14:colorNegative theme="5"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!B1:B24</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" high="1">
           <x14:colorSeries theme="1"/>
           <x14:colorNegative theme="5"/>
@@ -1050,6 +980,26 @@
               <xm:f>Sheet1!A1:A24</xm:f>
               <xm:sqref>H6</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!B1:B24</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C1:C24</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D1:D24</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!E1:E24</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F1:F24</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
